--- a/Data/PCR/Exp3_363_125a_30aCT.xlsx
+++ b/Data/PCR/Exp3_363_125a_30aCT.xlsx
@@ -1162,11 +1162,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="261325712"/>
-        <c:axId val="261328512"/>
+        <c:axId val="200272512"/>
+        <c:axId val="200271952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="261325712"/>
+        <c:axId val="200272512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +1209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261328512"/>
+        <c:crossAx val="200271952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1217,7 +1217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261328512"/>
+        <c:axId val="200271952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261325712"/>
+        <c:crossAx val="200272512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1864,16 +1864,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3410,15 +3410,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>136</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>363</v>
       </c>
@@ -3442,8 +3442,12 @@
       <c r="E3">
         <v>12.92</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f t="shared" ref="K3:M3" si="0">E3-E11</f>
+        <v>5.9399999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>363</v>
       </c>
@@ -3456,8 +3460,20 @@
       <c r="E4">
         <v>17.29</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f t="shared" ref="J4:J7" si="1">B4-B12</f>
+        <v>-0.86000000000000121</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K7" si="2">C4-C12</f>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M7" si="3">E4-E12</f>
+        <v>-1.5800000000000018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>363</v>
       </c>
@@ -3467,8 +3483,16 @@
       <c r="D5">
         <v>15.84</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L4:L7" si="4">D5-D13</f>
+        <v>-2.0100000000000016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>363</v>
       </c>
@@ -3492,8 +3516,20 @@
         <f>-((C8-E8)-(C16-E16))</f>
         <v>-5.6284999999999954</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>0.51999999999999957</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>0.46999999999999886</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>363</v>
       </c>
@@ -3511,8 +3547,16 @@
         <f>-((C9-E9)-(C17-E17))</f>
         <v>-15.052812885733736</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>4.6199999999999992</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>7.0800000000000018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>141</v>
       </c>
@@ -3521,19 +3565,19 @@
         <v>19.645</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:E8" si="0">AVERAGE(C3:C7)</f>
+        <f t="shared" ref="C8:E8" si="5">AVERAGE(C3:C7)</f>
         <v>19.914999999999999</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>15.51</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>16.987500000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>143</v>
       </c>
@@ -3542,15 +3586,15 @@
         <v>5.5488407197660043</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ref="C9:E9" si="1">STDEV(C3:C7)</f>
+        <f t="shared" ref="C9:E9" si="6">STDEV(C3:C7)</f>
         <v>6.6821590822128742</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.8157174947839057</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.3500982572654951</v>
       </c>
       <c r="G9">
@@ -3562,7 +3606,7 @@
         <v>-4.0689999999999973</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G10">
         <f>-((B9-D9)-(B27-D27))</f>
         <v>-8.2644392476735504</v>
@@ -3572,7 +3616,7 @@
         <v>-6.2656420193271991</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>135</v>
       </c>
@@ -3583,7 +3627,7 @@
         <v>6.98</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>135</v>
       </c>
@@ -3600,7 +3644,7 @@
         <v>18.87</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>135</v>
       </c>
@@ -3617,7 +3661,7 @@
         <v>40.78</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>135</v>
       </c>
@@ -3632,7 +3676,7 @@
         <v>9.98</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
@@ -3649,7 +3693,7 @@
         <v>14.02</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>142</v>
       </c>
@@ -3658,19 +3702,19 @@
         <v>19.569999999999997</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ref="C16:E16" si="2">AVERAGE(C11:C15)</f>
+        <f t="shared" ref="C16:E16" si="7">AVERAGE(C11:C15)</f>
         <v>15.425000000000001</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>20.612500000000001</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>18.125999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>143</v>
       </c>
@@ -3679,19 +3723,19 @@
         <v>7.2573204421466864</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ref="C17:E17" si="3">STDEV(C11:C15)</f>
+        <f t="shared" ref="C17:E17" si="8">STDEV(C11:C15)</f>
         <v>1.7068977708111293</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>12.566989496295443</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>13.427649831597487</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -3704,8 +3748,12 @@
       <c r="E18">
         <v>15.44</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f>E18-E11</f>
+        <v>8.4599999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -3718,8 +3766,20 @@
       <c r="E19">
         <v>18.989999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f t="shared" ref="I19:I22" si="9">B19-B12</f>
+        <v>1.67</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J18:L22" si="10">C19-C12</f>
+        <v>-0.24000000000000199</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="10"/>
+        <v>0.11999999999999744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -3732,8 +3792,20 @@
       <c r="D20">
         <v>10.55</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="10"/>
+        <v>2.7600000000000016</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="10"/>
+        <v>-7.3000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -3746,8 +3818,16 @@
       <c r="E21">
         <v>12.88</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="10"/>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="10"/>
+        <v>2.9000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>140</v>
       </c>
@@ -3765,8 +3845,16 @@
         <f>-((C23-E23)-(C26-E26))</f>
         <v>-4.6039999999999974</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f t="shared" si="10"/>
+        <v>3.3400000000000016</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="10"/>
+        <v>1.8200000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -3775,15 +3863,15 @@
         <v>18.934999999999999</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:E23" si="4">AVERAGE(C18:C22)</f>
+        <f t="shared" ref="C23:E23" si="11">AVERAGE(C18:C22)</f>
         <v>19.25</v>
       </c>
       <c r="D23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>13.223333333333334</v>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>15.787500000000001</v>
       </c>
       <c r="G23">
@@ -3795,25 +3883,25 @@
         <v>-3.8107845615005034</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>STDEV(B18:B22)</f>
         <v>2.6360260494413592</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:E24" si="5">STDEV(C18:C22)</f>
+        <f t="shared" ref="C24:E24" si="12">STDEV(C18:C22)</f>
         <v>3.3827355793795069</v>
       </c>
       <c r="D24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>4.0393233756822831</v>
       </c>
       <c r="E24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>2.5055322122588235</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G25">
         <f>-((B23-D23)-(B16-D16))</f>
         <v>-6.7541666666666682</v>
@@ -3823,7 +3911,7 @@
         <v>-6.1634999999999955</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>20.948</v>
       </c>
@@ -3845,7 +3933,7 @@
         <v>-12.59795542790704</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>5.4514465970052246</v>
       </c>

--- a/Data/PCR/Exp3_363_125a_30aCT.xlsx
+++ b/Data/PCR/Exp3_363_125a_30aCT.xlsx
@@ -1162,11 +1162,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="200272512"/>
-        <c:axId val="200271952"/>
+        <c:axId val="132272368"/>
+        <c:axId val="132272928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200272512"/>
+        <c:axId val="132272368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,7 +1209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200271952"/>
+        <c:crossAx val="132272928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1217,7 +1217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200271952"/>
+        <c:axId val="132272928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200272512"/>
+        <c:crossAx val="132272368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3413,7 +3413,7 @@
   <dimension ref="A2:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="I20" sqref="I20:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3443,7 +3443,7 @@
         <v>12.92</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="K3:M3" si="0">E3-E11</f>
+        <f t="shared" ref="M3" si="0">E3-E11</f>
         <v>5.9399999999999995</v>
       </c>
     </row>
@@ -3461,15 +3461,15 @@
         <v>17.29</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J7" si="1">B4-B12</f>
+        <f>B4-B12</f>
         <v>-0.86000000000000121</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K7" si="2">C4-C12</f>
+        <f t="shared" ref="K4:K6" si="1">C4-C12</f>
         <v>6.6999999999999993</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M7" si="3">E4-E12</f>
+        <f t="shared" ref="M4:M7" si="2">E4-E12</f>
         <v>-1.5800000000000018</v>
       </c>
     </row>
@@ -3484,11 +3484,11 @@
         <v>15.84</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J4:J5" si="3">B5-B13</f>
         <v>0.21000000000000085</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L4:L7" si="4">D5-D13</f>
+        <f t="shared" ref="L5:L7" si="4">D5-D13</f>
         <v>-2.0100000000000016</v>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
         <v>-5.6284999999999954</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.51999999999999957</v>
       </c>
       <c r="L6">
@@ -3525,7 +3525,7 @@
         <v>0.46999999999999886</v>
       </c>
       <c r="M6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.66</v>
       </c>
     </row>
@@ -3552,7 +3552,7 @@
         <v>4.6199999999999992</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.0800000000000018</v>
       </c>
     </row>
@@ -3604,6 +3604,14 @@
       <c r="H9">
         <f>-((C8-E8)-(C26-E26))</f>
         <v>-4.0689999999999973</v>
+      </c>
+      <c r="J9">
+        <f>B3-19.57</f>
+        <v>6.6099999999999994</v>
+      </c>
+      <c r="M9">
+        <f>E3-18.126</f>
+        <v>-5.2060000000000013</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3614,6 +3622,18 @@
       <c r="H10">
         <f>-((C9-E9)-(C27-E27))</f>
         <v>-6.2656420193271991</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J13" si="7">B4-19.57</f>
+        <v>-5.0300000000000011</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:K13" si="8">C4-15.425</f>
+        <v>9.2149999999999999</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:M13" si="9">E4-18.126</f>
+        <v>-0.83600000000000207</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3626,6 +3646,14 @@
       <c r="E11" s="3">
         <v>6.98</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L10:L13" si="10">D5-20.6125</f>
+        <v>-4.7725000000000009</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -3643,6 +3671,22 @@
       <c r="E12" s="3">
         <v>18.87</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>2.7199999999999989</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="8"/>
+        <v>-0.23500000000000121</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="10"/>
+        <v>-9.0725000000000016</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="9"/>
+        <v>-1.4860000000000007</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -3660,6 +3704,14 @@
       <c r="E13" s="4">
         <v>40.78</v>
       </c>
+      <c r="L13">
+        <f t="shared" si="10"/>
+        <v>-1.4625000000000021</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="9"/>
+        <v>2.9740000000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -3692,6 +3744,14 @@
       <c r="E15" s="1">
         <v>14.02</v>
       </c>
+      <c r="J15">
+        <f>-(J11-L11)</f>
+        <v>-0.77250000000000085</v>
+      </c>
+      <c r="K15">
+        <f>-(K10-M10)</f>
+        <v>-10.051000000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -3702,16 +3762,20 @@
         <v>19.569999999999997</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ref="C16:E16" si="7">AVERAGE(C11:C15)</f>
+        <f t="shared" ref="C16:E16" si="11">AVERAGE(C11:C15)</f>
         <v>15.425000000000001</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>20.612500000000001</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>18.125999999999998</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:K17" si="12">-(J12-L12)</f>
+        <v>-11.7925</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3723,16 +3787,24 @@
         <v>7.2573204421466864</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ref="C17:E17" si="8">STDEV(C11:C15)</f>
+        <f t="shared" ref="C17:E17" si="13">STDEV(C11:C15)</f>
         <v>1.7068977708111293</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>12.566989496295443</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>13.427649831597487</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="12"/>
+        <v>-1.4625000000000021</v>
+      </c>
+      <c r="K17">
+        <f>-(K12-M12)</f>
+        <v>-1.2509999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3748,10 +3820,6 @@
       <c r="E18">
         <v>15.44</v>
       </c>
-      <c r="L18">
-        <f>E18-E11</f>
-        <v>8.4599999999999991</v>
-      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -3766,18 +3834,6 @@
       <c r="E19">
         <v>18.989999999999998</v>
       </c>
-      <c r="I19">
-        <f t="shared" ref="I19:I22" si="9">B19-B12</f>
-        <v>1.67</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ref="J18:L22" si="10">C19-C12</f>
-        <v>-0.24000000000000199</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="10"/>
-        <v>0.11999999999999744</v>
-      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -3792,17 +3848,9 @@
       <c r="D20">
         <v>10.55</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="9"/>
-        <v>0.91000000000000014</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="10"/>
-        <v>2.7600000000000016</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="10"/>
-        <v>-7.3000000000000007</v>
+      <c r="L20">
+        <f>E18-E11</f>
+        <v>8.4599999999999991</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -3818,13 +3866,17 @@
       <c r="E21">
         <v>12.88</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="10"/>
-        <v>0.17999999999999972</v>
+      <c r="I21">
+        <f>B19-B12</f>
+        <v>1.67</v>
+      </c>
+      <c r="J21">
+        <f>C19-C12</f>
+        <v>-0.24000000000000199</v>
       </c>
       <c r="L21">
-        <f t="shared" si="10"/>
-        <v>2.9000000000000004</v>
+        <f>E19-E12</f>
+        <v>0.11999999999999744</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -3845,13 +3897,17 @@
         <f>-((C23-E23)-(C26-E26))</f>
         <v>-4.6039999999999974</v>
       </c>
+      <c r="I22">
+        <f>B20-B13</f>
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="J22">
+        <f>C20-C13</f>
+        <v>2.7600000000000016</v>
+      </c>
       <c r="K22">
-        <f t="shared" si="10"/>
-        <v>3.3400000000000016</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="10"/>
-        <v>1.8200000000000003</v>
+        <f>D20-D13</f>
+        <v>-7.3000000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -3863,15 +3919,15 @@
         <v>18.934999999999999</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:E23" si="11">AVERAGE(C18:C22)</f>
+        <f t="shared" ref="C23:E23" si="14">AVERAGE(C18:C22)</f>
         <v>19.25</v>
       </c>
       <c r="D23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>13.223333333333334</v>
       </c>
       <c r="E23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>15.787500000000001</v>
       </c>
       <c r="G23">
@@ -3881,6 +3937,14 @@
       <c r="H23">
         <f>-((C24-E24)-(C27-E27))</f>
         <v>-3.8107845615005034</v>
+      </c>
+      <c r="K23">
+        <f>D21-D14</f>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="L23">
+        <f>E21-E14</f>
+        <v>2.9000000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -3889,16 +3953,24 @@
         <v>2.6360260494413592</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:E24" si="12">STDEV(C18:C22)</f>
+        <f t="shared" ref="C24:E24" si="15">STDEV(C18:C22)</f>
         <v>3.3827355793795069</v>
       </c>
       <c r="D24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.0393233756822831</v>
       </c>
       <c r="E24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.5055322122588235</v>
+      </c>
+      <c r="K24">
+        <f>D22-D15</f>
+        <v>3.3400000000000016</v>
+      </c>
+      <c r="L24">
+        <f>E22-E15</f>
+        <v>1.8200000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
